--- a/Excel/MTO List For 64730-003.xlsx
+++ b/Excel/MTO List For 64730-003.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Python\NanTong_YNKS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E78C95-9CAC-44E5-9372-B31F11E94A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7DFE53-3D87-42B0-B072-A80451F8D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J144" sqref="J144:J152"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="O127" sqref="O127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,6 +987,9 @@
       <c r="J9" s="1">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="L9">
         <v>3</v>
       </c>
@@ -1022,6 +1025,9 @@
       <c r="J10" s="1">
         <v>10</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="L10">
         <v>3</v>
       </c>
@@ -1057,6 +1063,9 @@
       <c r="J11" s="1">
         <v>10</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>3</v>
       </c>
@@ -1092,6 +1101,9 @@
       <c r="J12" s="1">
         <v>10</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>3</v>
       </c>
@@ -1127,6 +1139,9 @@
       <c r="J13" s="1">
         <v>10</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="L13">
         <v>3</v>
       </c>
@@ -1161,6 +1176,9 @@
       </c>
       <c r="J14" s="1">
         <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1197,6 +1215,9 @@
       <c r="J15" s="1">
         <v>10</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="L15">
         <v>3</v>
       </c>
@@ -1232,6 +1253,9 @@
       <c r="J16" s="1">
         <v>10</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="L16">
         <v>3</v>
       </c>
@@ -1267,6 +1291,9 @@
       <c r="J17" s="1">
         <v>10</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="L17">
         <v>3</v>
       </c>
@@ -1302,6 +1329,9 @@
       <c r="J18" s="1">
         <v>10</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
       <c r="L18">
         <v>3</v>
       </c>
@@ -1337,6 +1367,9 @@
       <c r="J19" s="1">
         <v>10</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
       <c r="L19">
         <v>3</v>
       </c>
@@ -1372,6 +1405,9 @@
       <c r="J20" s="1">
         <v>10</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>3</v>
       </c>
@@ -1407,6 +1443,9 @@
       <c r="J21" s="1">
         <v>10</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
       <c r="L21">
         <v>3</v>
       </c>
@@ -1442,6 +1481,9 @@
       <c r="J22" s="1">
         <v>10</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
       <c r="L22">
         <v>3</v>
       </c>
@@ -1477,6 +1519,9 @@
       <c r="J23" s="1">
         <v>10</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <v>3</v>
       </c>
@@ -1512,6 +1557,9 @@
       <c r="J24" s="1">
         <v>10</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
       <c r="L24">
         <v>3</v>
       </c>
@@ -1547,6 +1595,9 @@
       <c r="J25" s="1">
         <v>10</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
       <c r="L25">
         <v>3</v>
       </c>
@@ -1582,6 +1633,9 @@
       <c r="J26" s="1">
         <v>10</v>
       </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
       <c r="L26">
         <v>3</v>
       </c>
@@ -1617,6 +1671,9 @@
       <c r="J27" s="1">
         <v>10</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
       <c r="L27">
         <v>3</v>
       </c>
@@ -1652,6 +1709,9 @@
       <c r="J28" s="1">
         <v>10</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
       <c r="L28">
         <v>3</v>
       </c>
@@ -1687,6 +1747,9 @@
       <c r="J29" s="1">
         <v>10</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
       <c r="L29">
         <v>3</v>
       </c>
@@ -1722,6 +1785,9 @@
       <c r="J30" s="1">
         <v>10</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
       <c r="L30">
         <v>3</v>
       </c>
@@ -1757,6 +1823,9 @@
       <c r="J31" s="1">
         <v>10</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
       <c r="L31">
         <v>3</v>
       </c>
@@ -1792,6 +1861,9 @@
       <c r="J32" s="1">
         <v>10</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
       <c r="L32">
         <v>3</v>
       </c>
@@ -1827,6 +1899,9 @@
       <c r="J33" s="1">
         <v>10</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
       <c r="L33">
         <v>3</v>
       </c>
@@ -1862,6 +1937,9 @@
       <c r="J34" s="1">
         <v>10</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="L34">
         <v>3</v>
       </c>
@@ -1897,6 +1975,9 @@
       <c r="J35" s="1">
         <v>10</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
       <c r="L35">
         <v>3</v>
       </c>
@@ -1932,6 +2013,9 @@
       <c r="J36" s="1">
         <v>10</v>
       </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
       <c r="L36">
         <v>3</v>
       </c>
@@ -1967,6 +2051,9 @@
       <c r="J37" s="1">
         <v>10</v>
       </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
       <c r="L37">
         <v>3</v>
       </c>
@@ -2002,6 +2089,9 @@
       <c r="J38" s="1">
         <v>10</v>
       </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
       <c r="L38">
         <v>3</v>
       </c>
@@ -2037,6 +2127,9 @@
       <c r="J39" s="1">
         <v>10</v>
       </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
       <c r="L39">
         <v>3</v>
       </c>
@@ -2072,6 +2165,9 @@
       <c r="J40" s="1">
         <v>9</v>
       </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
       <c r="L40">
         <v>3</v>
       </c>
@@ -2107,6 +2203,9 @@
       <c r="J41" s="1">
         <v>9</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
       <c r="L41">
         <v>3</v>
       </c>
@@ -2142,6 +2241,9 @@
       <c r="J42" s="1">
         <v>9</v>
       </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
       <c r="L42">
         <v>3</v>
       </c>
@@ -2177,6 +2279,9 @@
       <c r="J43" s="1">
         <v>9</v>
       </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
       <c r="L43">
         <v>3</v>
       </c>
@@ -2211,6 +2316,9 @@
       </c>
       <c r="J44" s="1">
         <v>9</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>3</v>
@@ -2247,6 +2355,9 @@
       <c r="J45" s="1">
         <v>9</v>
       </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
       <c r="L45">
         <v>3</v>
       </c>
@@ -2282,6 +2393,9 @@
       <c r="J46" s="1">
         <v>9</v>
       </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
       <c r="L46">
         <v>3</v>
       </c>
@@ -2317,6 +2431,9 @@
       <c r="J47" s="1">
         <v>9</v>
       </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
       <c r="L47">
         <v>3</v>
       </c>
@@ -2352,6 +2469,9 @@
       <c r="J48" s="1">
         <v>9</v>
       </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
       <c r="L48">
         <v>3</v>
       </c>
@@ -2387,6 +2507,9 @@
       <c r="J49" s="1">
         <v>8</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="L49">
         <v>3</v>
       </c>
@@ -2422,6 +2545,9 @@
       <c r="J50" s="1">
         <v>8</v>
       </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
       <c r="L50">
         <v>3</v>
       </c>
@@ -2457,6 +2583,9 @@
       <c r="J51" s="1">
         <v>8</v>
       </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
       <c r="L51">
         <v>3</v>
       </c>
@@ -2492,6 +2621,9 @@
       <c r="J52" s="1">
         <v>8</v>
       </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
       <c r="L52">
         <v>3</v>
       </c>
@@ -2527,6 +2659,9 @@
       <c r="J53" s="1">
         <v>8</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="L53">
         <v>3</v>
       </c>
@@ -2562,6 +2697,9 @@
       <c r="J54" s="1">
         <v>8</v>
       </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
       <c r="L54">
         <v>3</v>
       </c>
@@ -2597,6 +2735,9 @@
       <c r="J55" s="1">
         <v>8</v>
       </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
       <c r="L55">
         <v>3</v>
       </c>
@@ -2631,6 +2772,9 @@
       </c>
       <c r="J56" s="1">
         <v>8</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
       </c>
       <c r="L56">
         <v>3</v>
@@ -2667,6 +2811,9 @@
       <c r="J57" s="1">
         <v>8</v>
       </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
       <c r="L57">
         <v>3</v>
       </c>
@@ -2702,6 +2849,9 @@
       <c r="J58" s="1">
         <v>8</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="L58">
         <v>3</v>
       </c>
@@ -2737,6 +2887,9 @@
       <c r="J59" s="1">
         <v>8</v>
       </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
       <c r="L59">
         <v>3</v>
       </c>
@@ -2772,6 +2925,9 @@
       <c r="J60" s="1">
         <v>8</v>
       </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
       <c r="L60">
         <v>3</v>
       </c>
@@ -2807,6 +2963,9 @@
       <c r="J61" s="1">
         <v>7</v>
       </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
       <c r="L61">
         <v>3</v>
       </c>
@@ -2842,6 +3001,9 @@
       <c r="J62" s="1">
         <v>7</v>
       </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
       <c r="L62">
         <v>3</v>
       </c>
@@ -2877,6 +3039,9 @@
       <c r="J63" s="1">
         <v>7</v>
       </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
       <c r="L63">
         <v>3</v>
       </c>
@@ -2912,6 +3077,9 @@
       <c r="J64" s="1">
         <v>7</v>
       </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
       <c r="L64">
         <v>3</v>
       </c>
@@ -2947,6 +3115,9 @@
       <c r="J65" s="1">
         <v>7</v>
       </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
       <c r="L65">
         <v>3</v>
       </c>
@@ -2981,6 +3152,9 @@
       </c>
       <c r="J66" s="1">
         <v>7</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -3017,6 +3191,9 @@
       <c r="J67" s="1">
         <v>7</v>
       </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
       <c r="L67">
         <v>3</v>
       </c>
@@ -3052,6 +3229,9 @@
       <c r="J68" s="1">
         <v>7</v>
       </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
       <c r="L68">
         <v>3</v>
       </c>
@@ -3087,6 +3267,9 @@
       <c r="J69" s="1">
         <v>7</v>
       </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="L69">
         <v>3</v>
       </c>
@@ -3122,6 +3305,9 @@
       <c r="J70" s="1">
         <v>7</v>
       </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
       <c r="L70">
         <v>3</v>
       </c>
@@ -3157,6 +3343,9 @@
       <c r="J71" s="1">
         <v>7</v>
       </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
       <c r="L71">
         <v>3</v>
       </c>
@@ -3192,6 +3381,9 @@
       <c r="J72" s="1">
         <v>6</v>
       </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
       <c r="L72">
         <v>3</v>
       </c>
@@ -3227,6 +3419,9 @@
       <c r="J73" s="1">
         <v>6</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
       <c r="L73">
         <v>3</v>
       </c>
@@ -3262,6 +3457,9 @@
       <c r="J74" s="1">
         <v>6</v>
       </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
       <c r="L74">
         <v>3</v>
       </c>
@@ -3297,6 +3495,9 @@
       <c r="J75" s="1">
         <v>6</v>
       </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
       <c r="L75">
         <v>3</v>
       </c>
@@ -3332,6 +3533,9 @@
       <c r="J76" s="1">
         <v>6</v>
       </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
       <c r="L76">
         <v>3</v>
       </c>
@@ -3367,6 +3571,9 @@
       <c r="J77" s="1">
         <v>6</v>
       </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
       <c r="L77">
         <v>3</v>
       </c>
@@ -3402,6 +3609,9 @@
       <c r="J78" s="1">
         <v>6</v>
       </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
       <c r="L78">
         <v>3</v>
       </c>
@@ -3437,6 +3647,9 @@
       <c r="J79" s="1">
         <v>6</v>
       </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
       <c r="L79">
         <v>3</v>
       </c>
@@ -3472,6 +3685,9 @@
       <c r="J80" s="1">
         <v>6</v>
       </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
       <c r="L80">
         <v>3</v>
       </c>
@@ -3507,6 +3723,9 @@
       <c r="J81" s="1">
         <v>6</v>
       </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
       <c r="L81">
         <v>3</v>
       </c>
@@ -3542,6 +3761,9 @@
       <c r="J82" s="1">
         <v>6</v>
       </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
       <c r="L82">
         <v>3</v>
       </c>
@@ -3577,6 +3799,9 @@
       <c r="J83" s="1">
         <v>6</v>
       </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
       <c r="L83">
         <v>3</v>
       </c>
@@ -3612,6 +3837,9 @@
       <c r="J84" s="1">
         <v>5</v>
       </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
       <c r="L84">
         <v>3</v>
       </c>
@@ -3647,6 +3875,9 @@
       <c r="J85" s="1">
         <v>5</v>
       </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
       <c r="L85">
         <v>3</v>
       </c>
@@ -3682,6 +3913,9 @@
       <c r="J86" s="1">
         <v>5</v>
       </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
       <c r="L86">
         <v>3</v>
       </c>
@@ -3717,6 +3951,9 @@
       <c r="J87" s="1">
         <v>5</v>
       </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
       <c r="L87">
         <v>3</v>
       </c>
@@ -3752,6 +3989,9 @@
       <c r="J88" s="1">
         <v>5</v>
       </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
       <c r="L88">
         <v>3</v>
       </c>
@@ -3787,6 +4027,9 @@
       <c r="J89" s="1">
         <v>5</v>
       </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
       <c r="L89">
         <v>3</v>
       </c>
@@ -3822,6 +4065,9 @@
       <c r="J90" s="1">
         <v>5</v>
       </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
       <c r="L90">
         <v>3</v>
       </c>
@@ -3857,6 +4103,9 @@
       <c r="J91" s="1">
         <v>5</v>
       </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
       <c r="L91">
         <v>3</v>
       </c>
@@ -3892,6 +4141,9 @@
       <c r="J92" s="1">
         <v>5</v>
       </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
       <c r="L92">
         <v>3</v>
       </c>
@@ -3927,6 +4179,9 @@
       <c r="J93" s="1">
         <v>5</v>
       </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
       <c r="L93">
         <v>3</v>
       </c>
@@ -3962,6 +4217,9 @@
       <c r="J94" s="1">
         <v>5</v>
       </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
       <c r="L94">
         <v>3</v>
       </c>
@@ -3997,6 +4255,9 @@
       <c r="J95" s="1">
         <v>5</v>
       </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
       <c r="L95">
         <v>3</v>
       </c>
@@ -4032,6 +4293,9 @@
       <c r="J96" s="1">
         <v>5</v>
       </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
       <c r="L96">
         <v>3</v>
       </c>
@@ -4067,6 +4331,9 @@
       <c r="J97" s="1">
         <v>4</v>
       </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
       <c r="L97">
         <v>3</v>
       </c>
@@ -4102,6 +4369,9 @@
       <c r="J98" s="1">
         <v>4</v>
       </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
       <c r="L98">
         <v>3</v>
       </c>
@@ -4137,6 +4407,9 @@
       <c r="J99" s="1">
         <v>4</v>
       </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
       <c r="L99">
         <v>3</v>
       </c>
@@ -4172,6 +4445,9 @@
       <c r="J100" s="1">
         <v>4</v>
       </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
       <c r="L100">
         <v>3</v>
       </c>
@@ -4207,6 +4483,9 @@
       <c r="J101" s="1">
         <v>4</v>
       </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
       <c r="L101">
         <v>3</v>
       </c>
@@ -4242,6 +4521,9 @@
       <c r="J102" s="1">
         <v>4</v>
       </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
       <c r="L102">
         <v>3</v>
       </c>
@@ -4277,6 +4559,9 @@
       <c r="J103" s="1">
         <v>4</v>
       </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
       <c r="L103">
         <v>3</v>
       </c>
@@ -4312,6 +4597,9 @@
       <c r="J104" s="1">
         <v>4</v>
       </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
       <c r="L104">
         <v>3</v>
       </c>
@@ -4347,6 +4635,9 @@
       <c r="J105" s="1">
         <v>4</v>
       </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
       <c r="L105">
         <v>3</v>
       </c>
@@ -4382,6 +4673,9 @@
       <c r="J106" s="1">
         <v>4</v>
       </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
       <c r="L106">
         <v>3</v>
       </c>
@@ -4417,6 +4711,9 @@
       <c r="J107" s="1">
         <v>3</v>
       </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
       <c r="L107">
         <v>3</v>
       </c>
@@ -4452,6 +4749,9 @@
       <c r="J108" s="1">
         <v>3</v>
       </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
       <c r="L108">
         <v>3</v>
       </c>
@@ -4487,6 +4787,9 @@
       <c r="J109" s="1">
         <v>3</v>
       </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
       <c r="L109">
         <v>3</v>
       </c>
@@ -4522,6 +4825,9 @@
       <c r="J110" s="1">
         <v>3</v>
       </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
       <c r="L110">
         <v>3</v>
       </c>
@@ -4557,6 +4863,9 @@
       <c r="J111" s="1">
         <v>3</v>
       </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
       <c r="L111">
         <v>3</v>
       </c>
@@ -4592,6 +4901,9 @@
       <c r="J112" s="1">
         <v>3</v>
       </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
       <c r="L112">
         <v>3</v>
       </c>
@@ -4627,6 +4939,9 @@
       <c r="J113" s="1">
         <v>3</v>
       </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
       <c r="L113">
         <v>3</v>
       </c>
@@ -4662,6 +4977,9 @@
       <c r="J114" s="1">
         <v>3</v>
       </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
       <c r="L114">
         <v>3</v>
       </c>
@@ -4697,6 +5015,9 @@
       <c r="J115" s="1">
         <v>3</v>
       </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
       <c r="L115">
         <v>3</v>
       </c>
@@ -4732,6 +5053,9 @@
       <c r="J116" s="1">
         <v>3</v>
       </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
       <c r="L116">
         <v>3</v>
       </c>
@@ -4767,6 +5091,9 @@
       <c r="J117" s="1">
         <v>3</v>
       </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
       <c r="L117">
         <v>3</v>
       </c>
@@ -4802,6 +5129,9 @@
       <c r="J118" s="1">
         <v>3</v>
       </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
       <c r="L118">
         <v>3</v>
       </c>
@@ -4837,6 +5167,9 @@
       <c r="J119" s="1">
         <v>3</v>
       </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
       <c r="L119">
         <v>3</v>
       </c>
@@ -4872,6 +5205,9 @@
       <c r="J120" s="1">
         <v>2</v>
       </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
       <c r="L120">
         <v>3</v>
       </c>
@@ -4907,6 +5243,9 @@
       <c r="J121" s="1">
         <v>2</v>
       </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
       <c r="L121">
         <v>3</v>
       </c>
@@ -4942,6 +5281,9 @@
       <c r="J122" s="1">
         <v>2</v>
       </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
       <c r="L122">
         <v>3</v>
       </c>
@@ -4977,6 +5319,9 @@
       <c r="J123" s="1">
         <v>2</v>
       </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
       <c r="L123">
         <v>3</v>
       </c>
@@ -5012,6 +5357,9 @@
       <c r="J124" s="1">
         <v>2</v>
       </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
       <c r="L124">
         <v>3</v>
       </c>
@@ -5047,6 +5395,9 @@
       <c r="J125" s="1">
         <v>2</v>
       </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
       <c r="L125">
         <v>3</v>
       </c>
@@ -5082,6 +5433,9 @@
       <c r="J126" s="1">
         <v>2</v>
       </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
       <c r="L126">
         <v>3</v>
       </c>
@@ -5117,6 +5471,9 @@
       <c r="J127" s="1">
         <v>2</v>
       </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
       <c r="L127">
         <v>3</v>
       </c>
@@ -5152,6 +5509,9 @@
       <c r="J128" s="1">
         <v>2</v>
       </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
       <c r="L128">
         <v>3</v>
       </c>
@@ -5187,6 +5547,9 @@
       <c r="J129" s="1">
         <v>2</v>
       </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
       <c r="L129">
         <v>3</v>
       </c>
@@ -5222,6 +5585,9 @@
       <c r="J130" s="1">
         <v>2</v>
       </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
       <c r="L130">
         <v>3</v>
       </c>
@@ -5257,6 +5623,9 @@
       <c r="J131" s="1">
         <v>2</v>
       </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
       <c r="L131">
         <v>3</v>
       </c>
@@ -5292,6 +5661,9 @@
       <c r="J132" s="1">
         <v>2</v>
       </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
       <c r="L132">
         <v>3</v>
       </c>
@@ -5327,6 +5699,9 @@
       <c r="J133" s="1">
         <v>9</v>
       </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
       <c r="L133">
         <v>3</v>
       </c>
@@ -5362,6 +5737,9 @@
       <c r="J134" s="1">
         <v>8</v>
       </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
       <c r="L134">
         <v>3</v>
       </c>
@@ -5397,6 +5775,9 @@
       <c r="J135" s="1">
         <v>7</v>
       </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
       <c r="L135">
         <v>3</v>
       </c>
@@ -5432,6 +5813,9 @@
       <c r="J136" s="1">
         <v>1</v>
       </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
       <c r="L136">
         <v>3</v>
       </c>
@@ -5467,6 +5851,9 @@
       <c r="J137" s="1">
         <v>6</v>
       </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
       <c r="L137">
         <v>3</v>
       </c>
@@ -5502,6 +5889,9 @@
       <c r="J138" s="1">
         <v>7</v>
       </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
       <c r="L138">
         <v>3</v>
       </c>
@@ -5537,6 +5927,9 @@
       <c r="J139" s="1">
         <v>3</v>
       </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
       <c r="L139">
         <v>3</v>
       </c>
@@ -5572,6 +5965,9 @@
       <c r="J140" s="1">
         <v>1</v>
       </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
       <c r="L140">
         <v>3</v>
       </c>
@@ -5607,6 +6003,9 @@
       <c r="J141" s="1">
         <v>6</v>
       </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
       <c r="L141">
         <v>3</v>
       </c>
@@ -5642,6 +6041,9 @@
       <c r="J142" s="1">
         <v>5</v>
       </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
       <c r="L142">
         <v>3</v>
       </c>
@@ -5677,6 +6079,9 @@
       <c r="J143" s="1">
         <v>3</v>
       </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
       <c r="L143">
         <v>3</v>
       </c>
@@ -5703,6 +6108,9 @@
       <c r="J144" s="1">
         <v>1</v>
       </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
       <c r="L144">
         <v>3</v>
       </c>
@@ -5729,6 +6137,9 @@
       <c r="J145" s="1">
         <v>1</v>
       </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
       <c r="L145">
         <v>3</v>
       </c>
@@ -5755,6 +6166,9 @@
       <c r="J146" s="1">
         <v>1</v>
       </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
       <c r="L146">
         <v>3</v>
       </c>
@@ -5781,6 +6195,9 @@
       <c r="J147" s="1">
         <v>1</v>
       </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
       <c r="L147">
         <v>3</v>
       </c>
@@ -5807,6 +6224,9 @@
       <c r="J148" s="1">
         <v>1</v>
       </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
       <c r="L148">
         <v>3</v>
       </c>
@@ -5833,6 +6253,9 @@
       <c r="J149" s="1">
         <v>1</v>
       </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
       <c r="L149">
         <v>3</v>
       </c>
@@ -5859,6 +6282,9 @@
       <c r="J150" s="1">
         <v>1</v>
       </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
       <c r="L150">
         <v>3</v>
       </c>
@@ -5885,6 +6311,9 @@
       <c r="J151" s="1">
         <v>1</v>
       </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
       <c r="L151">
         <v>3</v>
       </c>
@@ -5909,6 +6338,9 @@
         <v>23</v>
       </c>
       <c r="J152" s="1">
+        <v>1</v>
+      </c>
+      <c r="K152">
         <v>1</v>
       </c>
       <c r="L152">
